--- a/data/4/20230604-a1r-nc-session4-h_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-h_transcript.xlsx
@@ -1,294 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3084B6E-39D8-B941-B44E-D907699EDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:55"</t>
-  </si>
-  <si>
-    <t>I think the current limits on contributions are enough. If you raise those in reading the cons, I agree that it just favors the wealthy wealthy people can afford to donate like that and all the candidates are going to do with more donations is buy more air time. Against each other will have to watch more and hear more TV and radio ads. So I think the limits are good. I think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's see I've read about the note last one and I don't, and I don't, and I don't think foreign-owned interested companies should be able to influence.</t>
-  </si>
-  <si>
-    <t>"10:40"</t>
-  </si>
-  <si>
-    <t>I agree with you about not needing to raise the limits on any contributions. There's too much money now, in politics, I do believe that foreigners should not be influencing our elections. However, it was documented and proven that in 2016. There was Russian interference according to our FBI, which is reliable source. And citizens, united has done more to damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Damage our election integrity and so much. Dark money is in our campaigns that it's just hard to track through shell companies, so that's my stance.</t>
-  </si>
-  <si>
-    <t>"11:24"</t>
-  </si>
-  <si>
-    <t>I think the angle for me is mostly to add transparency to how the money in orders is coming from some of the arm Arguments for, is that raising these contributions would help? I think that without, I would need to learn a little bit more evidence to see if that if there's some substantial way to that actually increases the transparency because I think that's the end goal that I would want to reach and if it means to raise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ethan the contribution limit that I can get that transparency, then it would be worthwhile for for the end goal.</t>
-  </si>
-  <si>
-    <t>"14:11"</t>
-  </si>
-  <si>
-    <t>I don't think public funds should be used on elections. I feel that there's better uses that the Public's money can go to other things that can be done. I mean, they're receiving donations from everything else everywhere else. So I feel that they're pretty good with money and they don't need the money from the public to also fund their campaign.</t>
-  </si>
-  <si>
-    <t>"14:35"</t>
-  </si>
-  <si>
-    <t>I honestly, don't think there should be a minimum for what they have to disclose that there should be a publicly available source that we can just go into a know exactly who is paying what amount to our politicians. Because at the end of the day, who's giving the money is, what they're going to make decisions on. So we, it gives us a clear path on. If I vote for this guy, this guy's gonna benefit this other guy so we should be able to know that.</t>
-  </si>
-  <si>
-    <t>"15:09"</t>
-  </si>
-  <si>
-    <t>I also also agree that public funds should be used for campaigns than that eliminates. The first item of give people vouchers. They can decide where their portion of the public funds go. And I also agree, I'd like to see the list of donors. Any amount</t>
-  </si>
-  <si>
-    <t>"15:30"</t>
-  </si>
-  <si>
-    <t>I agree with the rest. I don't think public funds to be used for campaign Finance. There's so much money already available to the candidates. Now that that money could be better spent and Pre-K or for the elderly or something else other than campaigns. I would like to know where the money's going. But then I don't want to get into the weeds, where the money's coming from, for candidates. I don't want to get into the weeds of dollar.</t>
-  </si>
-  <si>
-    <t>Nations. Because I think a lot of donations are like 25 bucks, 10 bucks or so. So, I think something. Yeah, a hundred dollars or a couple hundred dollars or more than that, would be reasonable to report.</t>
-  </si>
-  <si>
-    <t>"16:15"</t>
-  </si>
-  <si>
-    <t>Yeah, I was basically going to say the same thing that she said regarding the amount because if someone gives about they $25 and $50 to not going to have much of an impact on any laws or anything else going on. But then you have someone who's contributing couple thousand, tens of thousands, they would have influence on what the politician does or does not pass or bring to the table.</t>
-  </si>
-  <si>
-    <t>"17:47"</t>
-  </si>
-  <si>
-    <t>Oh, I think we definitely need a nonpartisan individuals to draw voting districts and a nonpartisan unbiased way because it's whatever parties then they draw Maps. Voting maps to stay in power which I guess I don't know. Maybe it's human nature to do so but they want to stay in power therefore they make whatever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> / changes necessary that's going to benefit them to stay in office.</t>
-  </si>
-  <si>
-    <t>"18:24"</t>
-  </si>
-  <si>
-    <t>Yeah, I definitely agree with that as well. And I do think that there should be a national federal requirement for all the states to follow this policy as well.</t>
-  </si>
-  <si>
-    <t>"18:35"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree should be non parce. And there's lots of examples of really strange shaped districts, because of of gerrymandering fact, there's one in Pennsylvania's and its nickname is Goofy kicking Donald Duck, because that's the shape of the, of the district.</t>
-  </si>
-  <si>
-    <t>"18:58"</t>
-  </si>
-  <si>
-    <t>That's the shape of greed. Yeah, I agree should be nonpartisan.</t>
-  </si>
-  <si>
-    <t>"20:20"</t>
-  </si>
-  <si>
-    <t>Make it a national holiday and I like the idea of getting 16 year old and bald and School Board politics. So I can start early. What's going on in the world.</t>
-  </si>
-  <si>
-    <t>"20:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm I'm definitely not for obligating, people to vote. I do think it should be a national holiday, so that everyone would have the ability to do so without work, being an impediment. But I mean, I think part of the First Amendment, it's that not only do you have the ability to say, whatever you want, but also the ability not to participate. If you don't want to, and as per letting sixteen-year-old start, yeah, get them started, get them realizing that it's a system that they should be involved in.</t>
-  </si>
-  <si>
-    <t>"21:03"</t>
-  </si>
-  <si>
-    <t>Let's see, 16 year olds, I've had five sixteen year olds and they just don't seem to be in my opinion there, Boys. The boys were mature a little bit later than girls, so it just, I don't agree with 16 year. Olds voting on The Local School Board elections. They're still in school Civic obligations. You should make it compulsory like, jury duty. I disagree with that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That, and a holiday national holiday. Yes, I think voting should be because, you know, people can get off work and go and vote or make use one of the existing holidays and change the day of voting.</t>
-  </si>
-  <si>
-    <t>"21:48"</t>
-  </si>
-  <si>
-    <t>Basically, Third Party candidate some. Yes, you should make it more easily accessible for them to get. On the ballot, I'm against compulsory voting. That should be even if it's a right that we have, we should be able to exercise that right if we want to, we shouldn't have to make an election day. A holiday that doesn't really help out. Some people, I work in a hospital and even if it's a holiday, I still have to work but your employer is supposed to make arrangements for you to be able to go and vote. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That should really be an issue right there. And I don't think a sixteen-year-old is mature enough to make these types of sadistic of decisions.</t>
-  </si>
-  <si>
-    <t>"22:28"</t>
-  </si>
-  <si>
-    <t>Yeah I agree with Janice on the the idea that federal holiday might not solve it just yeah because there might be a financial obligation where even though their job is still going to be allowing them to work and they would rather take the money then having the opportunity to go vote sad to say that's the experience that some people have to have to make. And I I don't know if a Federal holiday just solve</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is that on its own and I think the sixteen-year-old option I would hope that it could do some good because there's been some pretty messy board situations and but at the same time maybe the kids wouldn't be able to help either.</t>
-  </si>
-  <si>
-    <t>"23:13"</t>
-  </si>
-  <si>
-    <t>I did want to touch on the letting sixteen-year-old vote in Local School Board elections. I think it's a good idea, you know, the ones that want to truly participate will. And the ones that really don't care, they're probably wouldn't. And I mean, 16 is not that far away from 18, which is when they can actually vote. So it's a good idea to let them get started. Early and students are the ones affected by the school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The board the most. So,</t>
-  </si>
-  <si>
-    <t>"23:47"</t>
-  </si>
-  <si>
-    <t>I think it should be not too hard for third party candidates to get onto a ballot. So if it needs to be easier, I had before that you had before holiday mainly because I would go vote and have a holiday, the I do not think it voting should be compulsory and find people for not voting and I think 16 is a little too young. I'd say probably well 18</t>
-  </si>
-  <si>
-    <t>"24:15"</t>
-  </si>
-  <si>
-    <t>I just want to touch on. I don't think we should make vote in the Civic obligation. I don't feel that you should get fined for being for not being able to vote or not going to vote. There's all types of situations, you never know what's going to happen. People go through things, they might not be able to vote and as far as sixteen-year-old vote, vote in Local School Board elections. It depends a lot like honest, as you can,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The ones that want to wheel in the ones that don't want. So if they're into it, they will and I'm sure they'll make good decisions.</t>
-  </si>
-  <si>
-    <t>"29:23"</t>
-  </si>
-  <si>
-    <t>Raising the limits, would just give them more to cover up, make it more transparent.</t>
-  </si>
-  <si>
-    <t>"29:32"</t>
-  </si>
-  <si>
-    <t>Yeah, I read that somewhere in one of the cons and one of the some of the literature that it might make it more transparent. I just wonder why they would say that.</t>
-  </si>
-  <si>
-    <t>"29:42"</t>
-  </si>
-  <si>
-    <t>I don't think it would make it more transparent in my opinion.</t>
-  </si>
-  <si>
-    <t>I just I just don't see how that would would do it just I can't explain why. Well I have 33 seconds. Hmm well I guess it'd be more reportable. The more money you contribute. You do have to report over a certain amount which is why they're not asking for small donor disclosure.</t>
-  </si>
-  <si>
-    <t>"30:47"</t>
-  </si>
-  <si>
-    <t>It's kind of related. You know, what's the, what is the benefit? Why make it more other than the arguments for say that campaigns become more expensive and candidates need more money? And the third Arguments for that is a higher contribution limit, might bring more money into the regulated campaign Finance system. So if it brought more money and didn't that would declare require some disclosure</t>
-  </si>
-  <si>
-    <t>"31:27"</t>
-  </si>
-  <si>
-    <t>I wish lobbyists didn't bring in a lot of money because it's like, there's, they're buying votes, they're just, you know, buying favor and that should not be the case. And they have so much money to the point where they're just drown out the poor mom-and-pop, little $5 $10 to $25 donations. So I really wish lobbyists weren't allowed and big packs weren't allowed. Super Pacs weren't allowed to contribute to campaigns.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -364,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -473,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1555,548 +1302,625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:55"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"9:55"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>I think the current limits on contributions are enough. If you raise those in reading the cons, I agree that it just favors the wealthy wealthy people can afford to donate like that and all the candidates are going to do with more donations is buy more air time. Against each other will have to watch more and hear more TV and radio ads. So I think the limits are good. I think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"9:55"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"9:55"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's see I've read about the note last one and I don't, and I don't, and I don't think foreign-owned interested companies should be able to influence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"10:40"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"10:40"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>I agree with you about not needing to raise the limits on any contributions. There's too much money now, in politics, I do believe that foreigners should not be influencing our elections. However, it was documented and proven that in 2016. There was Russian interference according to our FBI, which is reliable source. And citizens, united has done more to damage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"10:40"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Damage our election integrity and so much. Dark money is in our campaigns that it's just hard to track through shell companies, so that's my stance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>9872</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:24"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I think the angle for me is mostly to add transparency to how the money in orders is coming from some of the arm Arguments for, is that raising these contributions would help? I think that without, I would need to learn a little bit more evidence to see if that if there's some substantial way to that actually increases the transparency because I think that's the end goal that I would want to reach and if it means to raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>9872</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"11:24"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ethan the contribution limit that I can get that transparency, then it would be worthwhile for for the end goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48579</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"14:11"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I don't think public funds should be used on elections. I feel that there's better uses that the Public's money can go to other things that can be done. I mean, they're receiving donations from everything else everywhere else. So I feel that they're pretty good with money and they don't need the money from the public to also fund their campaign.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>10409</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"14:35"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I honestly, don't think there should be a minimum for what they have to disclose that there should be a publicly available source that we can just go into a know exactly who is paying what amount to our politicians. Because at the end of the day, who's giving the money is, what they're going to make decisions on. So we, it gives us a clear path on. If I vote for this guy, this guy's gonna benefit this other guy so we should be able to know that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"15:09"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I also also agree that public funds should be used for campaigns than that eliminates. The first item of give people vouchers. They can decide where their portion of the public funds go. And I also agree, I'd like to see the list of donors. Any amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:30"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>I agree with the rest. I don't think public funds to be used for campaign Finance. There's so much money already available to the candidates. Now that that money could be better spent and Pre-K or for the elderly or something else other than campaigns. I would like to know where the money's going. But then I don't want to get into the weeds, where the money's coming from, for candidates. I don't want to get into the weeds of dollar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:30"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Nations. Because I think a lot of donations are like 25 bucks, 10 bucks or so. So, I think something. Yeah, a hundred dollars or a couple hundred dollars or more than that, would be reasonable to report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48407</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"16:15"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I was basically going to say the same thing that she said regarding the amount because if someone gives about they $25 and $50 to not going to have much of an impact on any laws or anything else going on. But then you have someone who's contributing couple thousand, tens of thousands, they would have influence on what the politician does or does not pass or bring to the table.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"17:47"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Oh, I think we definitely need a nonpartisan individuals to draw voting districts and a nonpartisan unbiased way because it's whatever parties then they draw Maps. Voting maps to stay in power which I guess I don't know. Maybe it's human nature to do so but they want to stay in power therefore they make whatever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"17:47"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> / changes necessary that's going to benefit them to stay in office.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48407</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:24"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I definitely agree with that as well. And I do think that there should be a national federal requirement for all the states to follow this policy as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:35"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree should be non parce. And there's lots of examples of really strange shaped districts, because of of gerrymandering fact, there's one in Pennsylvania's and its nickname is Goofy kicking Donald Duck, because that's the shape of the, of the district.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48279</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:58"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>That's the shape of greed. Yeah, I agree should be nonpartisan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48279</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"20:20"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Make it a national holiday and I like the idea of getting 16 year old and bald and School Board politics. So I can start early. What's going on in the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>10409</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"20:33"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I'm I'm definitely not for obligating, people to vote. I do think it should be a national holiday, so that everyone would have the ability to do so without work, being an impediment. But I mean, I think part of the First Amendment, it's that not only do you have the ability to say, whatever you want, but also the ability not to participate. If you don't want to, and as per letting sixteen-year-old start, yeah, get them started, get them realizing that it's a system that they should be involved in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"21:03"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Let's see, 16 year olds, I've had five sixteen year olds and they just don't seem to be in my opinion there, Boys. The boys were mature a little bit later than girls, so it just, I don't agree with 16 year. Olds voting on The Local School Board elections. They're still in school Civic obligations. You should make it compulsory like, jury duty. I disagree with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"21:03"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That, and a holiday national holiday. Yes, I think voting should be because, you know, people can get off work and go and vote or make use one of the existing holidays and change the day of voting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48407</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"21:48"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Basically, Third Party candidate some. Yes, you should make it more easily accessible for them to get. On the ballot, I'm against compulsory voting. That should be even if it's a right that we have, we should be able to exercise that right if we want to, we shouldn't have to make an election day. A holiday that doesn't really help out. Some people, I work in a hospital and even if it's a holiday, I still have to work but your employer is supposed to make arrangements for you to be able to go and vote. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48407</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"21:48"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That should really be an issue right there. And I don't think a sixteen-year-old is mature enough to make these types of sadistic of decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>9872</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"22:28"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Yeah I agree with Janice on the the idea that federal holiday might not solve it just yeah because there might be a financial obligation where even though their job is still going to be allowing them to work and they would rather take the money then having the opportunity to go vote sad to say that's the experience that some people have to have to make. And I I don't know if a Federal holiday just solve</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>9872</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"22:28"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> is that on its own and I think the sixteen-year-old option I would hope that it could do some good because there's been some pretty messy board situations and but at the same time maybe the kids wouldn't be able to help either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48521</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I did want to touch on the letting sixteen-year-old vote in Local School Board elections. I think it's a good idea, you know, the ones that want to truly participate will. And the ones that really don't care, they're probably wouldn't. And I mean, 16 is not that far away from 18, which is when they can actually vote. So it's a good idea to let them get started. Early and students are the ones affected by the school.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48521</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The board the most. So,</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:47"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>I think it should be not too hard for third party candidates to get onto a ballot. So if it needs to be easier, I had before that you had before holiday mainly because I would go vote and have a holiday, the I do not think it voting should be compulsory and find people for not voting and I think 16 is a little too young. I'd say probably well 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48579</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"24:15"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>I just want to touch on. I don't think we should make vote in the Civic obligation. I don't feel that you should get fined for being for not being able to vote or not going to vote. There's all types of situations, you never know what's going to happen. People go through things, they might not be able to vote and as far as sixteen-year-old vote, vote in Local School Board elections. It depends a lot like honest, as you can,</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48579</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:15"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ones that want to wheel in the ones that don't want. So if they're into it, they will and I'm sure they'll make good decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48279</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"29:23"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Raising the limits, would just give them more to cover up, make it more transparent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"29:32"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I read that somewhere in one of the cons and one of the some of the literature that it might make it more transparent. I just wonder why they would say that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"29:42"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I don't think it would make it more transparent in my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"29:42"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>I just I just don't see how that would would do it just I can't explain why. Well I have 33 seconds. Hmm well I guess it'd be more reportable. The more money you contribute. You do have to report over a certain amount which is why they're not asking for small donor disclosure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48298</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"30:47"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>It's kind of related. You know, what's the, what is the benefit? Why make it more other than the arguments for say that campaigns become more expensive and candidates need more money? And the third Arguments for that is a higher contribution limit, might bring more money into the regulated campaign Finance system. So if it brought more money and didn't that would declare require some disclosure</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48338</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>61</v>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"31:27"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I wish lobbyists didn't bring in a lot of money because it's like, there's, they're buying votes, they're just, you know, buying favor and that should not be the case. And they have so much money to the point where they're just drown out the poor mom-and-pop, little $5 $10 to $25 donations. So I really wish lobbyists weren't allowed and big packs weren't allowed. Super Pacs weren't allowed to contribute to campaigns.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413EE86B-8D7C-274D-8056-AB0B5AAC6E88}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>